--- a/output/StructureDefinition-newpatientprofile.xlsx
+++ b/output/StructureDefinition-newpatientprofile.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/StructureDefinition/newpatientprofile</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/newpatientprofile</t>
   </si>
   <si>
     <t>Version</t>

--- a/output/StructureDefinition-newpatientprofile.xlsx
+++ b/output/StructureDefinition-newpatientprofile.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NatlDir New Patient Profile</t>
+    <t>NatlDirEndpointQry New Patient Profile</t>
   </si>
   <si>
     <t>Status</t>
